--- a/服务器账号 .xlsx
+++ b/服务器账号 .xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23895" windowHeight="10260" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23895" windowHeight="10260" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="内外网IP地址" sheetId="2" r:id="rId2"/>
-    <sheet name="数据库密码" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="物理服务器" sheetId="4" r:id="rId4"/>
-    <sheet name="ICP认证（已验证）" sheetId="6" r:id="rId5"/>
-    <sheet name="服务器项目" sheetId="7" r:id="rId6"/>
-    <sheet name="操作日志" sheetId="10" r:id="rId7"/>
-    <sheet name="管理密码" sheetId="11" r:id="rId8"/>
-    <sheet name="域名管理" sheetId="12" r:id="rId9"/>
-    <sheet name="项目编号地址" sheetId="13" r:id="rId10"/>
-    <sheet name="中安华典项目" sheetId="9" r:id="rId11"/>
-    <sheet name="服务器项目整理" sheetId="14" r:id="rId12"/>
-    <sheet name="数据库ID" sheetId="15" r:id="rId13"/>
+    <sheet name="内外网IP地址" sheetId="2" r:id="rId1"/>
+    <sheet name="数据库密码" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="物理服务器" sheetId="4" r:id="rId3"/>
+    <sheet name="ICP认证（已验证）" sheetId="6" r:id="rId4"/>
+    <sheet name="服务器项目" sheetId="7" r:id="rId5"/>
+    <sheet name="管理密码" sheetId="11" r:id="rId6"/>
+    <sheet name="域名管理" sheetId="12" r:id="rId7"/>
+    <sheet name="中安华典项目" sheetId="9" r:id="rId8"/>
+    <sheet name="服务器项目整理" sheetId="14" r:id="rId9"/>
+    <sheet name="数据库ID" sheetId="15" r:id="rId10"/>
+    <sheet name="项目编号地址" sheetId="13" r:id="rId11"/>
+    <sheet name="操作日志" sheetId="10" r:id="rId12"/>
+    <sheet name="日常操作" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="688">
   <si>
     <t>统一对外IP</t>
   </si>
@@ -273,9 +274,6 @@
   </si>
   <si>
     <t>172.16.32.40</t>
-  </si>
-  <si>
-    <t>172.16.32.41</t>
   </si>
   <si>
     <t>172.16.32.45</t>
@@ -493,23 +491,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>23.150.143.150</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23.150.143.153</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1976,18 +1957,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">yishujiacn.com </t>
-  </si>
-  <si>
     <t xml:space="preserve">xliany.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.yisence.com/DomainTemplate/Login.aspx </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZAHDzahd_20141*</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1suyuan.com</t>
@@ -2229,24 +2199,6 @@
     <t>m.zahd.net</t>
   </si>
   <si>
-    <t>task任务系统</t>
-  </si>
-  <si>
-    <t>172.16.32.39:1570</t>
-  </si>
-  <si>
-    <t>task.zahd.net</t>
-  </si>
-  <si>
-    <t>艺术家官网</t>
-  </si>
-  <si>
-    <t>172.16.32.39:811</t>
-  </si>
-  <si>
-    <t>yishujiacn.com www.yishujiacn.com</t>
-  </si>
-  <si>
     <t>中暖官网</t>
   </si>
   <si>
@@ -2600,11 +2552,6 @@
     <t>wy.1suyuan.com</t>
   </si>
   <si>
-    <t>172.16.32.49:12768
-wedonet
-jdD7HyRrzU9YS6KwJC</t>
-  </si>
-  <si>
     <t>CentOS 64 _waiyuan</t>
   </si>
   <si>
@@ -2652,10 +2599,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.32.59</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Linux Docker</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2669,10 +2612,6 @@
   </si>
   <si>
     <t>Docker项目位于/usr/local/workspace下，每个文件夹是一个项目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>server1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2712,10 +2651,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>123.150.143.150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>路径</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2733,6 +2668,167 @@
   </si>
   <si>
     <t>root  w0F5649Z/3x2m8GMcsUUGQ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>root Zh_123456</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab.1suyuan.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.32.49:12768
+wedonet
+jdD7HyRrzU9YS6KwJC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.150.143.150
+Administrator
+zahd@123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.32.24</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.32.59</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测gitlab备份情况</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>server1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23.150.143.153</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.150.143.153</t>
+  </si>
+  <si>
+    <t>192.168.13.46</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux Nginx负载服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>server2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.yisence.com/DomainTemplate/Login.aspx </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZAHDzahd_20141*</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>子IP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术家官网</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>yishujiacn.com www.yishujiacn.com</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.yisence.com/DomainTemplate/Login.aspx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yishujiacn.com </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZAHDzahd_20141*</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>812_gitlab</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.32.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux测试机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>server3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedonet 123456
+root 123456</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.150.143.150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150 测试机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.150.143.166</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>农品运营商</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.32.41</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>root zahd1234</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2740,7 +2836,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2805,6 +2901,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3026,10 +3130,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3193,128 +3298,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3322,51 +3506,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -3665,9 +3812,713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="54" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" t="s">
+        <v>471</v>
+      </c>
+      <c r="G19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>462</v>
+      </c>
+      <c r="B20" t="s">
+        <v>461</v>
+      </c>
+      <c r="E20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" t="s">
+        <v>464</v>
+      </c>
+      <c r="G21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>462</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>462</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E25" t="s">
+        <v>466</v>
+      </c>
+      <c r="G25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>476</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>478</v>
+      </c>
+      <c r="E30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G30" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>483</v>
+      </c>
+      <c r="G31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="54"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="54"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="54"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="54"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="54" t="s">
+        <v>458</v>
+      </c>
+      <c r="E60" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
@@ -3689,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -3735,7 +4586,7 @@
       <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="95" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3762,7 +4613,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="101"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -3775,7 +4626,7 @@
       <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="101"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -3788,7 +4639,7 @@
       <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="101"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -3801,7 +4652,7 @@
       <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="96" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="17"/>
@@ -3824,9 +4675,9 @@
       <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="103"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -3849,12 +4700,12 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="103"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="96" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="102" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="16"/>
@@ -3872,10 +4723,10 @@
       <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="103"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="16">
         <v>12768</v>
       </c>
@@ -3893,10 +4744,10 @@
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="103"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="13">
         <v>12768</v>
       </c>
@@ -3916,18 +4767,18 @@
       <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="103"/>
-      <c r="C12" s="108" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="104" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="120">
         <v>12768</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="109">
         <v>10002</v>
       </c>
       <c r="H12" s="18"/>
@@ -3943,12 +4794,12 @@
       <c r="L12" s="47"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="103"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="79"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
         <v>18</v>
@@ -3962,10 +4813,10 @@
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="103"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="99"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="16" t="s">
@@ -3977,10 +4828,10 @@
       <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="103"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="99"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="16" t="s">
         <v>28</v>
       </c>
@@ -4002,15 +4853,15 @@
       <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="103"/>
-      <c r="C16" s="100" t="s">
+      <c r="B16" s="97"/>
+      <c r="C16" s="105" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="109">
         <v>12768</v>
       </c>
       <c r="G16" s="18"/>
@@ -4025,11 +4876,11 @@
       <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="103"/>
-      <c r="C17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="79"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="16">
         <v>10003</v>
       </c>
@@ -4046,10 +4897,10 @@
       <c r="L17" s="46"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="103"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="97"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="13">
         <v>3306</v>
       </c>
@@ -4062,22 +4913,22 @@
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L18" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="103"/>
-      <c r="C19" s="100" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="105" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="109">
         <v>12768</v>
       </c>
       <c r="G19" s="18"/>
@@ -4092,11 +4943,11 @@
       <c r="L19" s="47"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="103"/>
-      <c r="C20" s="96"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="79"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="16">
         <v>10004</v>
       </c>
@@ -4113,10 +4964,10 @@
       <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="103"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="97"/>
+      <c r="E21" s="103"/>
       <c r="F21" s="13">
         <v>3306</v>
       </c>
@@ -4128,15 +4979,15 @@
       <c r="L21" s="44"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="103"/>
-      <c r="C22" s="100" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="105" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="109">
         <v>12768</v>
       </c>
       <c r="G22" s="18"/>
@@ -4151,11 +5002,11 @@
       <c r="L22" s="47"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="103"/>
-      <c r="C23" s="96"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="79"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="16">
         <v>10005</v>
       </c>
@@ -4172,10 +5023,10 @@
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="103"/>
-      <c r="C24" s="96"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="96"/>
+      <c r="E24" s="102"/>
       <c r="F24" s="16">
         <v>3306</v>
       </c>
@@ -4193,10 +5044,10 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="103"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="97"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="26">
         <v>3306</v>
       </c>
@@ -4210,15 +5061,15 @@
       <c r="L25" s="44"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="103"/>
-      <c r="C26" s="89" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="106" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="27"/>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="122">
         <v>12768</v>
       </c>
       <c r="G26" s="29"/>
@@ -4233,11 +5084,11 @@
       <c r="L26" s="48"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="103"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="95"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="32">
         <v>10006</v>
       </c>
@@ -4252,10 +5103,10 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="103"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="91"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="34">
         <v>3306</v>
       </c>
@@ -4271,7 +5122,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="103"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="17" t="s">
         <v>45</v>
       </c>
@@ -4292,7 +5143,7 @@
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="103"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -4305,7 +5156,7 @@
       <c r="L30" s="46"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="103"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -4322,7 +5173,7 @@
       <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="104"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -4335,7 +5186,7 @@
       <c r="L32" s="44"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="105"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="35" t="s">
         <v>47</v>
       </c>
@@ -4360,7 +5211,7 @@
       <c r="L33" s="36"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="106"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -4377,32 +5228,32 @@
       <c r="L34" s="36"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="106"/>
-      <c r="C35" s="80" t="s">
+      <c r="B35" s="100"/>
+      <c r="C35" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="82"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="107"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="85"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="116"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="37"/>
@@ -4823,15 +5674,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C35:L36"/>
     <mergeCell ref="D9:D11"/>
@@ -4846,6 +5688,15 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4853,1893 +5704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G2">
-        <v>123456</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="54" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="54" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23" t="s">
-        <v>422</v>
-      </c>
-      <c r="C23" t="s">
-        <v>423</v>
-      </c>
-      <c r="D23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="41.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="125" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="126" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1" s="126" t="s">
-        <v>658</v>
-      </c>
-      <c r="D1" s="126" t="s">
-        <v>502</v>
-      </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125" t="s">
-        <v>662</v>
-      </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126" t="s">
-        <v>503</v>
-      </c>
-      <c r="J1" s="126" t="s">
-        <v>504</v>
-      </c>
-      <c r="K1" s="126" t="s">
-        <v>505</v>
-      </c>
-      <c r="L1" s="126" t="s">
-        <v>506</v>
-      </c>
-      <c r="M1" s="126" t="s">
-        <v>507</v>
-      </c>
-      <c r="N1" s="125" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="120">
-        <v>1</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>656</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="123" t="s">
-        <v>638</v>
-      </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124" t="s">
-        <v>509</v>
-      </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124" t="s">
-        <v>510</v>
-      </c>
-      <c r="J2" s="103" t="s">
-        <v>511</v>
-      </c>
-      <c r="K2" s="113" t="s">
-        <v>512</v>
-      </c>
-      <c r="L2" s="113" t="s">
-        <v>513</v>
-      </c>
-      <c r="M2" s="114" t="s">
-        <v>514</v>
-      </c>
-      <c r="N2" s="124"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="120"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="72" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="64" t="s">
-        <v>516</v>
-      </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64" t="s">
-        <v>517</v>
-      </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="64"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="120"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="72" t="s">
-        <v>518</v>
-      </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="64" t="s">
-        <v>519</v>
-      </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
-        <v>520</v>
-      </c>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="64"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="120"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="72" t="s">
-        <v>521</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="64"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="120"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="72" t="s">
-        <v>524</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="64" t="s">
-        <v>525</v>
-      </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64" t="s">
-        <v>526</v>
-      </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="64"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="120"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="72" t="s">
-        <v>527</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="64" t="s">
-        <v>528</v>
-      </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="64"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="120"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="72" t="s">
-        <v>530</v>
-      </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="64"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="120"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="72" t="s">
-        <v>533</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64" t="s">
-        <v>535</v>
-      </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="64"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="120"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="72" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="64" t="s">
-        <v>537</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64" t="s">
-        <v>538</v>
-      </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="64"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="120"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="72" t="s">
-        <v>539</v>
-      </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="64" t="s">
-        <v>540</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64" t="s">
-        <v>541</v>
-      </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="64"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="120"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="72" t="s">
-        <v>542</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="64" t="s">
-        <v>543</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64" t="s">
-        <v>544</v>
-      </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="64"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="120"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="72" t="s">
-        <v>545</v>
-      </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="64"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="120"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="72" t="s">
-        <v>548</v>
-      </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64" t="s">
-        <v>550</v>
-      </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="64"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="120"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="64" t="s">
-        <v>552</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64" t="s">
-        <v>553</v>
-      </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="64"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="120"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="74"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="120"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="72" t="s">
-        <v>554</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64" t="s">
-        <v>556</v>
-      </c>
-      <c r="J17" s="121" t="s">
-        <v>557</v>
-      </c>
-      <c r="K17" s="122" t="s">
-        <v>558</v>
-      </c>
-      <c r="L17" s="122" t="s">
-        <v>559</v>
-      </c>
-      <c r="M17" s="116" t="s">
-        <v>560</v>
-      </c>
-      <c r="N17" s="64"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="120"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="72" t="s">
-        <v>561</v>
-      </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="64" t="s">
-        <v>562</v>
-      </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="J18" s="121"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="64"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="120"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="72" t="s">
-        <v>564</v>
-      </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="64" t="s">
-        <v>565</v>
-      </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64" t="s">
-        <v>566</v>
-      </c>
-      <c r="J19" s="121"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="64"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="120"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="72" t="s">
-        <v>567</v>
-      </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="64" t="s">
-        <v>568</v>
-      </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64" t="s">
-        <v>569</v>
-      </c>
-      <c r="J20" s="121"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="64"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="120"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="72" t="s">
-        <v>570</v>
-      </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="64" t="s">
-        <v>571</v>
-      </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="J21" s="121"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="64"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="120"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="72" t="s">
-        <v>573</v>
-      </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="64" t="s">
-        <v>574</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64" t="s">
-        <v>575</v>
-      </c>
-      <c r="J22" s="121"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="64"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="120"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="72" t="s">
-        <v>576</v>
-      </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="64" t="s">
-        <v>577</v>
-      </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64" t="s">
-        <v>578</v>
-      </c>
-      <c r="J23" s="121"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="64"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="120"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="72" t="s">
-        <v>579</v>
-      </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="64" t="s">
-        <v>580</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64" t="s">
-        <v>581</v>
-      </c>
-      <c r="J24" s="121"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="64"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="120"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="72" t="s">
-        <v>582</v>
-      </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="J25" s="121"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="64"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="120"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="72" t="s">
-        <v>585</v>
-      </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="64" t="s">
-        <v>586</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64" t="s">
-        <v>587</v>
-      </c>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="64"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="120"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="72" t="s">
-        <v>588</v>
-      </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="64" t="s">
-        <v>589</v>
-      </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="J27" s="121"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="64"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="120"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="64" t="s">
-        <v>592</v>
-      </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64" t="s">
-        <v>593</v>
-      </c>
-      <c r="J28" s="121"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="64"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="120"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="72" t="s">
-        <v>594</v>
-      </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64" t="s">
-        <v>595</v>
-      </c>
-      <c r="J29" s="121"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="64"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="120"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="74"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="120"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="72" t="s">
-        <v>596</v>
-      </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="64" t="s">
-        <v>597</v>
-      </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="J31" s="102" t="s">
-        <v>599</v>
-      </c>
-      <c r="K31" s="111" t="s">
-        <v>600</v>
-      </c>
-      <c r="L31" s="111" t="s">
-        <v>601</v>
-      </c>
-      <c r="M31" s="117" t="s">
-        <v>602</v>
-      </c>
-      <c r="N31" s="64"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="120"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="72" t="s">
-        <v>603</v>
-      </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="64" t="s">
-        <v>604</v>
-      </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64" t="s">
-        <v>605</v>
-      </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="64"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="120"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="72" t="s">
-        <v>603</v>
-      </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="64" t="s">
-        <v>606</v>
-      </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64" t="s">
-        <v>607</v>
-      </c>
-      <c r="J33" s="104"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="64"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="120"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="74"/>
-    </row>
-    <row r="35" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="120"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="72" t="s">
-        <v>608</v>
-      </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="64" t="s">
-        <v>609</v>
-      </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64" t="s">
-        <v>610</v>
-      </c>
-      <c r="J35" s="69" t="s">
-        <v>611</v>
-      </c>
-      <c r="K35" s="68" t="s">
-        <v>612</v>
-      </c>
-      <c r="L35" s="68" t="s">
-        <v>613</v>
-      </c>
-      <c r="M35" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="N35" s="64"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="120"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="74"/>
-    </row>
-    <row r="37" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="120"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="64" t="s">
-        <v>614</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64" t="s">
-        <v>615</v>
-      </c>
-      <c r="J37" s="69" t="s">
-        <v>616</v>
-      </c>
-      <c r="K37" s="68" t="s">
-        <v>617</v>
-      </c>
-      <c r="L37" s="68" t="s">
-        <v>618</v>
-      </c>
-      <c r="M37" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="N37" s="64"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="120"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="74"/>
-    </row>
-    <row r="39" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A39" s="120"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="72" t="s">
-        <v>619</v>
-      </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64" t="s">
-        <v>620</v>
-      </c>
-      <c r="J39" s="69" t="s">
-        <v>621</v>
-      </c>
-      <c r="K39" s="68" t="s">
-        <v>622</v>
-      </c>
-      <c r="L39" s="68" t="s">
-        <v>623</v>
-      </c>
-      <c r="M39" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="N39" s="64"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="120"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="74"/>
-    </row>
-    <row r="41" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A41" s="120"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64" t="s">
-        <v>624</v>
-      </c>
-      <c r="J41" s="69" t="s">
-        <v>625</v>
-      </c>
-      <c r="K41" s="68" t="s">
-        <v>626</v>
-      </c>
-      <c r="L41" s="68" t="s">
-        <v>627</v>
-      </c>
-      <c r="M41" s="70" t="s">
-        <v>628</v>
-      </c>
-      <c r="N41" s="64"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="120"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="74"/>
-    </row>
-    <row r="43" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="120"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64" t="s">
-        <v>624</v>
-      </c>
-      <c r="J43" s="69" t="s">
-        <v>629</v>
-      </c>
-      <c r="K43" s="68" t="s">
-        <v>630</v>
-      </c>
-      <c r="L43" s="68" t="s">
-        <v>631</v>
-      </c>
-      <c r="M43" s="70" t="s">
-        <v>632</v>
-      </c>
-      <c r="N43" s="64"/>
-    </row>
-    <row r="45" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A45" s="71">
-        <v>2</v>
-      </c>
-      <c r="B45" s="129" t="s">
-        <v>661</v>
-      </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="128" t="s">
-        <v>659</v>
-      </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64" t="s">
-        <v>633</v>
-      </c>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64" t="s">
-        <v>634</v>
-      </c>
-      <c r="J45" s="69" t="s">
-        <v>635</v>
-      </c>
-      <c r="K45" s="68" t="s">
-        <v>636</v>
-      </c>
-      <c r="L45" s="68" t="s">
-        <v>637</v>
-      </c>
-      <c r="M45" s="70" t="s">
-        <v>560</v>
-      </c>
-      <c r="N45" s="64"/>
-    </row>
-    <row r="46" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="B46" s="87"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>654</v>
-      </c>
-      <c r="F46" s="64" t="s">
-        <v>649</v>
-      </c>
-      <c r="G46" s="75" t="s">
-        <v>651</v>
-      </c>
-      <c r="H46" s="127" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
-        <v>4</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>660</v>
-      </c>
-      <c r="F48" s="128"/>
-      <c r="G48" s="61" t="s">
-        <v>663</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
-        <v>5</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
-        <v>6</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
-        <v>7</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B65" s="110" t="s">
-        <v>653</v>
-      </c>
-      <c r="C65" s="110"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="110"/>
-      <c r="F65" s="110"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="J17:J29"/>
-    <mergeCell ref="K17:K29"/>
-    <mergeCell ref="L17:L29"/>
-    <mergeCell ref="B2:B43"/>
-    <mergeCell ref="M17:M29"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="J2:J15"/>
-    <mergeCell ref="K2:K15"/>
-    <mergeCell ref="L2:L15"/>
-    <mergeCell ref="M2:M15"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="34.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>664</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="54"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="54"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>492</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>461</v>
-      </c>
-      <c r="B19" t="s">
-        <v>478</v>
-      </c>
-      <c r="C19" t="s">
-        <v>476</v>
-      </c>
-      <c r="G19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>467</v>
-      </c>
-      <c r="B20" t="s">
-        <v>466</v>
-      </c>
-      <c r="E20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>467</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>480</v>
-      </c>
-      <c r="E21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>467</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>479</v>
-      </c>
-      <c r="E22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>467</v>
-      </c>
-      <c r="B23" t="s">
-        <v>470</v>
-      </c>
-      <c r="E23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>467</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>479</v>
-      </c>
-      <c r="E24" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>467</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>479</v>
-      </c>
-      <c r="E25" t="s">
-        <v>471</v>
-      </c>
-      <c r="G25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" t="s">
-        <v>473</v>
-      </c>
-      <c r="E26">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>483</v>
-      </c>
-      <c r="E30" t="s">
-        <v>484</v>
-      </c>
-      <c r="G30" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" t="s">
-        <v>488</v>
-      </c>
-      <c r="G31" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="D49">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" s="54"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51" s="54"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="54"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="54"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="E60" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="54"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -6751,10 +5716,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6763,12 +5728,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6779,77 +5744,91 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
       <c r="B3" s="54" t="s">
-        <v>127</v>
+        <v>661</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
-      <c r="B4" s="54" t="s">
-        <v>128</v>
-      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="54"/>
       <c r="B5" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
       <c r="B6" s="54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="54"/>
       <c r="B7" s="54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="54" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="54" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="54"/>
       <c r="B11" s="54" t="s">
-        <v>126</v>
+        <v>660</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>152</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6858,12 +5837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6880,163 +5859,171 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>170</v>
-      </c>
       <c r="H1" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="54" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E5" s="54"/>
       <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
       <c r="G6" s="54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
       <c r="H9" s="54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="109" t="s">
-        <v>400</v>
-      </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
+      <c r="A13" s="126" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>684</v>
+      </c>
+      <c r="H16" t="s">
+        <v>685</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7048,12 +6035,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
@@ -7075,46 +6062,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B1" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="E1" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>183</v>
-      </c>
       <c r="M1" s="58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N1" s="63" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7122,26 +6109,26 @@
         <v>2</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J2" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K2" s="54"/>
     </row>
@@ -7150,33 +6137,33 @@
         <v>3</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I3" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7184,21 +6171,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
       <c r="I4" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7206,29 +6193,29 @@
         <v>5</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="59"/>
       <c r="F5" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K5" s="61"/>
     </row>
@@ -7237,23 +6224,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E6" s="54"/>
       <c r="F6" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K6" s="54"/>
     </row>
@@ -7262,29 +6249,29 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K7" s="54"/>
     </row>
@@ -7293,26 +6280,26 @@
         <v>8</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K8" s="54"/>
     </row>
@@ -7321,32 +6308,32 @@
         <v>9</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E9" s="59"/>
       <c r="F9" s="59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M9" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7354,26 +6341,26 @@
         <v>10</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7381,32 +6368,32 @@
         <v>11</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7414,29 +6401,29 @@
         <v>12</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7444,29 +6431,29 @@
         <v>13</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M13" s="54" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -7474,28 +6461,28 @@
         <v>14</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7503,26 +6490,26 @@
         <v>15</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.15">
@@ -7530,29 +6517,29 @@
         <v>16</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7560,29 +6547,29 @@
         <v>17</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N17" s="54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7590,26 +6577,26 @@
         <v>18</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J18" s="54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7617,32 +6604,32 @@
         <v>19</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N19" s="59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7650,17 +6637,17 @@
         <v>20</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E20" s="54"/>
       <c r="L20" s="54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7668,32 +6655,32 @@
         <v>21</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E21" s="54"/>
       <c r="I21" s="54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J21" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L21" s="54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M21" s="54" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N21" s="54" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -7701,29 +6688,29 @@
         <v>22</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="59" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I22" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M22" s="54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7731,26 +6718,26 @@
         <v>23</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="G23" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>271</v>
-      </c>
       <c r="J23" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7758,13 +6745,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E24" s="54"/>
     </row>
@@ -7773,17 +6760,17 @@
         <v>25</v>
       </c>
       <c r="B25" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>355</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>357</v>
       </c>
       <c r="E25" s="54"/>
       <c r="M25" s="54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7791,29 +6778,29 @@
         <v>26</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J26" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M26" s="54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -7821,28 +6808,28 @@
         <v>27</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J27" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L27" s="54" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7850,28 +6837,28 @@
         <v>28</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F28" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" s="54" t="s">
         <v>288</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="I28" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="J28" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="M28" s="54" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7881,43 +6868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -7938,137 +6889,137 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="E1" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>309</v>
-      </c>
       <c r="F1" s="63" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
         <v>297</v>
       </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" t="s">
-        <v>299</v>
-      </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
         <v>303</v>
-      </c>
-      <c r="B3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C8">
         <v>15022698500</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="B9" s="65" t="s">
-        <v>382</v>
-      </c>
       <c r="C9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" t="s">
         <v>381</v>
-      </c>
-      <c r="D9" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" t="s">
         <v>384</v>
       </c>
-      <c r="B10" t="s">
-        <v>386</v>
-      </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" t="s">
         <v>387</v>
-      </c>
-      <c r="B11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D11" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D12">
         <v>168110</v>
@@ -8076,38 +7027,38 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" t="s">
         <v>394</v>
-      </c>
-      <c r="B13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D13" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" t="s">
         <v>431</v>
-      </c>
-      <c r="D14" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D15">
         <v>662892</v>
@@ -8115,13 +7066,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D16">
         <v>8834760</v>
@@ -8129,120 +7080,120 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="127" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" t="s">
         <v>426</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="127"/>
+      <c r="B22" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" t="s">
         <v>427</v>
-      </c>
-      <c r="C21" t="s">
-        <v>423</v>
-      </c>
-      <c r="D21" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="110"/>
-      <c r="B22" t="s">
-        <v>430</v>
-      </c>
-      <c r="C22" t="s">
-        <v>423</v>
-      </c>
-      <c r="D22" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" t="s">
         <v>434</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -8255,12 +7206,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8273,125 +7224,1478 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>453</v>
+        <v>666</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="66" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="66" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
       <c r="B6" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="66" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="66" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>451</v>
+        <v>672</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="66" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>375</v>
+        <v>673</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="66" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81" t="s">
+        <v>647</v>
+      </c>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82" t="s">
+        <v>498</v>
+      </c>
+      <c r="K1" s="82" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" s="82" t="s">
+        <v>500</v>
+      </c>
+      <c r="M1" s="82" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" s="82" t="s">
+        <v>502</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="128">
+        <v>1</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="79" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80" t="s">
+        <v>505</v>
+      </c>
+      <c r="K2" s="97" t="s">
+        <v>506</v>
+      </c>
+      <c r="L2" s="134" t="s">
+        <v>507</v>
+      </c>
+      <c r="M2" s="134" t="s">
+        <v>508</v>
+      </c>
+      <c r="N2" s="141" t="s">
+        <v>509</v>
+      </c>
+      <c r="O2" s="80"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="128"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="64"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="128"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="128"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="72" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="64"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="128"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="64"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="128"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="72" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="64"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="128"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="64"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="128"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="72" t="s">
+        <v>528</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="64"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="128"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="72" t="s">
+        <v>531</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="64"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="128"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="64"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="128"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="72" t="s">
+        <v>537</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="64"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="128"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="64"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="128"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="128"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="72" t="s">
+        <v>543</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="K15" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="L15" s="130" t="s">
+        <v>547</v>
+      </c>
+      <c r="M15" s="130" t="s">
+        <v>548</v>
+      </c>
+      <c r="N15" s="136" t="s">
+        <v>549</v>
+      </c>
+      <c r="O15" s="64"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="128"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="72" t="s">
+        <v>550</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="K16" s="129"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="64"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="128"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="72" t="s">
+        <v>553</v>
+      </c>
+      <c r="F17" s="72"/>
+      <c r="G17" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="K17" s="129"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="64"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="128"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="72" t="s">
+        <v>556</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="64"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="128"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="72" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="K19" s="129"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="64"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="128"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="72" t="s">
+        <v>562</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="K20" s="129"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="64"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="128"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="K21" s="129"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="64"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="128"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="72" t="s">
+        <v>568</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64" t="s">
+        <v>570</v>
+      </c>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="64"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="128"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="K23" s="129"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="64"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="128"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="K24" s="129"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="64"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="128"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="72" t="s">
+        <v>577</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="K25" s="129"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="64"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="128"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="72" t="s">
+        <v>580</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="K26" s="129"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="64"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="128"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="72" t="s">
+        <v>583</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="64"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="128"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="85"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="128"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="72" t="s">
+        <v>585</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="K29" s="96" t="s">
+        <v>588</v>
+      </c>
+      <c r="L29" s="137" t="s">
+        <v>589</v>
+      </c>
+      <c r="M29" s="137" t="s">
+        <v>590</v>
+      </c>
+      <c r="N29" s="138" t="s">
+        <v>591</v>
+      </c>
+      <c r="O29" s="64"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="128"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="72" t="s">
+        <v>592</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="64" t="s">
+        <v>593</v>
+      </c>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="K30" s="97"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="64"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="128"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="72" t="s">
+        <v>592</v>
+      </c>
+      <c r="F31" s="72"/>
+      <c r="G31" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="K31" s="98"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="64"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="128"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="85"/>
+    </row>
+    <row r="33" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="128"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="72" t="s">
+        <v>597</v>
+      </c>
+      <c r="F33" s="72"/>
+      <c r="G33" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64" t="s">
+        <v>599</v>
+      </c>
+      <c r="K33" s="69" t="s">
+        <v>600</v>
+      </c>
+      <c r="L33" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="M33" s="68" t="s">
+        <v>602</v>
+      </c>
+      <c r="N33" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="O33" s="64"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="128"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="85"/>
+    </row>
+    <row r="35" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="128"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="64" t="s">
+        <v>603</v>
+      </c>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="K35" s="69" t="s">
+        <v>605</v>
+      </c>
+      <c r="L35" s="68" t="s">
+        <v>606</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>607</v>
+      </c>
+      <c r="N35" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="O35" s="64"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="128"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="85"/>
+    </row>
+    <row r="37" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A37" s="128"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="72" t="s">
+        <v>608</v>
+      </c>
+      <c r="F37" s="72"/>
+      <c r="G37" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="K37" s="69" t="s">
+        <v>610</v>
+      </c>
+      <c r="L37" s="68" t="s">
+        <v>611</v>
+      </c>
+      <c r="M37" s="68" t="s">
+        <v>612</v>
+      </c>
+      <c r="N37" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="O37" s="64"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="128"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="85"/>
+    </row>
+    <row r="39" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A39" s="128"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="72"/>
+      <c r="G39" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="K39" s="69" t="s">
+        <v>614</v>
+      </c>
+      <c r="L39" s="68" t="s">
+        <v>615</v>
+      </c>
+      <c r="M39" s="68" t="s">
+        <v>616</v>
+      </c>
+      <c r="N39" s="70" t="s">
+        <v>617</v>
+      </c>
+      <c r="O39" s="64"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="128"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="85"/>
+    </row>
+    <row r="41" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="128"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="72"/>
+      <c r="G41" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="K41" s="69" t="s">
+        <v>618</v>
+      </c>
+      <c r="L41" s="68" t="s">
+        <v>619</v>
+      </c>
+      <c r="M41" s="68" t="s">
+        <v>620</v>
+      </c>
+      <c r="N41" s="70" t="s">
+        <v>621</v>
+      </c>
+      <c r="O41" s="64"/>
+    </row>
+    <row r="43" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="131" t="s">
+        <v>655</v>
+      </c>
+      <c r="C43" s="118" t="s">
+        <v>656</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>670</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A44" s="71">
+        <v>2</v>
+      </c>
+      <c r="B44" s="131"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>645</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64" t="s">
+        <v>623</v>
+      </c>
+      <c r="K44" s="69" t="s">
+        <v>654</v>
+      </c>
+      <c r="L44" s="68" t="s">
+        <v>624</v>
+      </c>
+      <c r="M44" s="68" t="s">
+        <v>625</v>
+      </c>
+      <c r="N44" s="70" t="s">
+        <v>549</v>
+      </c>
+      <c r="O44" s="64"/>
+    </row>
+    <row r="45" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="B45" s="131"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="117" t="s">
+        <v>657</v>
+      </c>
+      <c r="E45" s="105" t="s">
+        <v>637</v>
+      </c>
+      <c r="F45" s="132" t="s">
+        <v>659</v>
+      </c>
+      <c r="G45" s="117"/>
+      <c r="H45" s="74" t="s">
+        <v>638</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B46" s="131"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="86" t="s">
+        <v>674</v>
+      </c>
+      <c r="I46" s="83"/>
+      <c r="J46" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B47" s="131"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="83"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="131"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="77" t="s">
+        <v>662</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F48" s="143" t="s">
+        <v>664</v>
+      </c>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="83" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B49" s="131"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="89" t="s">
+        <v>675</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F49" s="143" t="s">
+        <v>677</v>
+      </c>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90" t="s">
+        <v>678</v>
+      </c>
+      <c r="I49" s="83" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="88"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="83"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="G52" s="84"/>
+      <c r="H52" s="61" t="s">
+        <v>648</v>
+      </c>
+      <c r="I52" s="61" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B69" s="127" t="s">
+        <v>640</v>
+      </c>
+      <c r="C69" s="127"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="M15:M27"/>
+    <mergeCell ref="B2:B41"/>
+    <mergeCell ref="N15:N27"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="K2:K13"/>
+    <mergeCell ref="L2:L13"/>
+    <mergeCell ref="M2:M13"/>
+    <mergeCell ref="N2:N13"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="K15:K27"/>
+    <mergeCell ref="L15:L27"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="B43:B49"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/服务器账号 .xlsx
+++ b/服务器账号 .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="696">
   <si>
     <t>统一对外IP</t>
   </si>
@@ -2667,10 +2667,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>root  w0F5649Z/3x2m8GMcsUUGQ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>root Zh_123456</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2779,10 +2775,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.32.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Linux测试机</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2829,6 +2821,47 @@
   </si>
   <si>
     <t>root zahd1234</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>server4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedonet 123456
+root zahd!1234</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>root  w0F5649Z/3x2m8GMcsUUGQ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.32.40</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年以前项目数据库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>root 123456</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_1    server-id=10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_10_bak    server-id=11</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>root Zahd_123456</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_10的备份数据库</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3134,7 +3167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3362,19 +3395,149 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3383,133 +3546,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3835,8 +3880,8 @@
       <c r="B1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="144" t="s">
-        <v>683</v>
+      <c r="C1" s="98" t="s">
+        <v>681</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>108</v>
@@ -3956,21 +4001,21 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="54" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -4505,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +4631,7 @@
       <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="142" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -4613,7 +4658,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="95"/>
+      <c r="B4" s="142"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -4626,7 +4671,7 @@
       <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -4639,7 +4684,7 @@
       <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="95"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -4652,7 +4697,7 @@
       <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="17"/>
@@ -4675,7 +4720,7 @@
       <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="97"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
@@ -4700,12 +4745,12 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="97"/>
-      <c r="C9" s="102"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="138" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="16"/>
@@ -4723,10 +4768,10 @@
       <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="97"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="118"/>
-      <c r="E10" s="102"/>
+      <c r="E10" s="138"/>
       <c r="F10" s="16">
         <v>12768</v>
       </c>
@@ -4744,10 +4789,10 @@
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="97"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="13">
         <v>12768</v>
       </c>
@@ -4767,18 +4812,18 @@
       <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="97"/>
-      <c r="C12" s="104" t="s">
+      <c r="B12" s="106"/>
+      <c r="C12" s="146" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="120">
+      <c r="F12" s="134">
         <v>12768</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="122">
         <v>10002</v>
       </c>
       <c r="H12" s="18"/>
@@ -4794,12 +4839,12 @@
       <c r="L12" s="47"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="97"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="110"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="123"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
         <v>18</v>
@@ -4813,10 +4858,10 @@
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="97"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="125"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="16" t="s">
@@ -4828,10 +4873,10 @@
       <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="97"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="125"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="16" t="s">
         <v>28</v>
       </c>
@@ -4853,15 +4898,15 @@
       <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="97"/>
-      <c r="C16" s="105" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="116" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="122">
         <v>12768</v>
       </c>
       <c r="G16" s="18"/>
@@ -4876,11 +4921,11 @@
       <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="97"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="123"/>
       <c r="G17" s="16">
         <v>10003</v>
       </c>
@@ -4897,10 +4942,10 @@
       <c r="L17" s="46"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="97"/>
-      <c r="C18" s="103"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="103"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="13">
         <v>3306</v>
       </c>
@@ -4920,15 +4965,15 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="97"/>
-      <c r="C19" s="105" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="116" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="122">
         <v>12768</v>
       </c>
       <c r="G19" s="18"/>
@@ -4943,11 +4988,11 @@
       <c r="L19" s="47"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="97"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="110"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="16">
         <v>10004</v>
       </c>
@@ -4964,10 +5009,10 @@
       <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="97"/>
-      <c r="C21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="103"/>
+      <c r="E21" s="139"/>
       <c r="F21" s="13">
         <v>3306</v>
       </c>
@@ -4979,15 +5024,15 @@
       <c r="L21" s="44"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="97"/>
-      <c r="C22" s="105" t="s">
+      <c r="B22" s="106"/>
+      <c r="C22" s="116" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="122">
         <v>12768</v>
       </c>
       <c r="G22" s="18"/>
@@ -5002,11 +5047,11 @@
       <c r="L22" s="47"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="97"/>
-      <c r="C23" s="102"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="110"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="123"/>
       <c r="G23" s="16">
         <v>10005</v>
       </c>
@@ -5023,10 +5068,10 @@
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="97"/>
-      <c r="C24" s="102"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="102"/>
+      <c r="E24" s="138"/>
       <c r="F24" s="16">
         <v>3306</v>
       </c>
@@ -5044,10 +5089,10 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="97"/>
-      <c r="C25" s="103"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="103"/>
+      <c r="E25" s="139"/>
       <c r="F25" s="26">
         <v>3306</v>
       </c>
@@ -5061,15 +5106,15 @@
       <c r="L25" s="44"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="97"/>
-      <c r="C26" s="106" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="131" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="27"/>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="136">
         <v>12768</v>
       </c>
       <c r="G26" s="29"/>
@@ -5084,11 +5129,11 @@
       <c r="L26" s="48"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="97"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="123"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="32">
         <v>10006</v>
       </c>
@@ -5103,10 +5148,10 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="97"/>
-      <c r="C28" s="108"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="108"/>
+      <c r="E28" s="133"/>
       <c r="F28" s="34">
         <v>3306</v>
       </c>
@@ -5122,7 +5167,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="97"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="17" t="s">
         <v>45</v>
       </c>
@@ -5143,7 +5188,7 @@
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="97"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -5156,7 +5201,7 @@
       <c r="L30" s="46"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="97"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -5173,7 +5218,7 @@
       <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="98"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -5186,7 +5231,7 @@
       <c r="L32" s="44"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="99"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="35" t="s">
         <v>47</v>
       </c>
@@ -5211,7 +5256,7 @@
       <c r="L33" s="36"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="100"/>
+      <c r="B34" s="144"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -5228,32 +5273,32 @@
       <c r="L34" s="36"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="100"/>
-      <c r="C35" s="111" t="s">
+      <c r="B35" s="144"/>
+      <c r="C35" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="113"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="126"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="101"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="116"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="37"/>
@@ -5674,6 +5719,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C28"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C35:L36"/>
     <mergeCell ref="D9:D11"/>
@@ -5688,15 +5742,6 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5756,7 +5801,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
       <c r="B3" s="54" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>136</v>
@@ -5806,7 +5851,7 @@
         <v>121</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C11" s="54" t="s">
         <v>136</v>
@@ -6006,23 +6051,23 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="99" t="s">
         <v>398</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7112,7 +7157,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="127" t="s">
+      <c r="A21" s="100" t="s">
         <v>424</v>
       </c>
       <c r="B21" t="s">
@@ -7126,7 +7171,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="127"/>
+      <c r="A22" s="100"/>
       <c r="B22" t="s">
         <v>428</v>
       </c>
@@ -7236,10 +7281,10 @@
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="66" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -7318,14 +7363,14 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="66" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -7504,12 +7549,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7540,7 +7585,7 @@
         <v>644</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>497</v>
@@ -7571,10 +7616,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="128">
+      <c r="A2" s="114">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="102" t="s">
         <v>642</v>
       </c>
       <c r="C2" s="76"/>
@@ -7591,23 +7636,23 @@
       <c r="J2" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="106" t="s">
         <v>506</v>
       </c>
-      <c r="L2" s="134" t="s">
+      <c r="L2" s="102" t="s">
         <v>507</v>
       </c>
-      <c r="M2" s="134" t="s">
+      <c r="M2" s="102" t="s">
         <v>508</v>
       </c>
-      <c r="N2" s="141" t="s">
+      <c r="N2" s="112" t="s">
         <v>509</v>
       </c>
       <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="128"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="76"/>
       <c r="D3" s="87"/>
       <c r="E3" s="72" t="s">
@@ -7622,15 +7667,15 @@
       <c r="J3" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="141"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="64"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="128"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="76"/>
       <c r="D4" s="87"/>
       <c r="E4" s="72" t="s">
@@ -7645,15 +7690,15 @@
       <c r="J4" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="141"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="112"/>
       <c r="O4" s="64"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="128"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="76"/>
       <c r="D5" s="87"/>
       <c r="E5" s="72" t="s">
@@ -7668,15 +7713,15 @@
       <c r="J5" s="64" t="s">
         <v>518</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="141"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="112"/>
       <c r="O5" s="64"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="128"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="76"/>
       <c r="D6" s="87"/>
       <c r="E6" s="72" t="s">
@@ -7691,15 +7736,15 @@
       <c r="J6" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="141"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="112"/>
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="128"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="76"/>
       <c r="D7" s="87"/>
       <c r="E7" s="72" t="s">
@@ -7714,15 +7759,15 @@
       <c r="J7" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="141"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="128"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="76"/>
       <c r="D8" s="87"/>
       <c r="E8" s="72" t="s">
@@ -7737,15 +7782,15 @@
       <c r="J8" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="141"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="112"/>
       <c r="O8" s="64"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="128"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="76"/>
       <c r="D9" s="87"/>
       <c r="E9" s="72" t="s">
@@ -7760,15 +7805,15 @@
       <c r="J9" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="141"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="64"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="128"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="76"/>
       <c r="D10" s="87"/>
       <c r="E10" s="72" t="s">
@@ -7783,15 +7828,15 @@
       <c r="J10" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="141"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="112"/>
       <c r="O10" s="64"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="128"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="76"/>
       <c r="D11" s="87"/>
       <c r="E11" s="72" t="s">
@@ -7806,15 +7851,15 @@
       <c r="J11" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="141"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="112"/>
       <c r="O11" s="64"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="128"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="76"/>
       <c r="D12" s="87"/>
       <c r="E12" s="72" t="s">
@@ -7829,15 +7874,15 @@
       <c r="J12" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="141"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="64"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="128"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="76"/>
       <c r="D13" s="87"/>
       <c r="E13" s="72" t="s">
@@ -7852,21 +7897,21 @@
       <c r="J13" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="142"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="113"/>
       <c r="O13" s="64"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="128"/>
-      <c r="B14" s="134"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="73"/>
       <c r="D14" s="85"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="128"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="76"/>
       <c r="D15" s="87"/>
       <c r="E15" s="72" t="s">
@@ -7881,23 +7926,23 @@
       <c r="J15" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="K15" s="129" t="s">
+      <c r="K15" s="115" t="s">
         <v>546</v>
       </c>
-      <c r="L15" s="130" t="s">
+      <c r="L15" s="101" t="s">
         <v>547</v>
       </c>
-      <c r="M15" s="130" t="s">
+      <c r="M15" s="101" t="s">
         <v>548</v>
       </c>
-      <c r="N15" s="136" t="s">
+      <c r="N15" s="104" t="s">
         <v>549</v>
       </c>
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="128"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="76"/>
       <c r="D16" s="87"/>
       <c r="E16" s="72" t="s">
@@ -7912,15 +7957,15 @@
       <c r="J16" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="136"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="104"/>
       <c r="O16" s="64"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="128"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="76"/>
       <c r="D17" s="87"/>
       <c r="E17" s="72" t="s">
@@ -7935,15 +7980,15 @@
       <c r="J17" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="136"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="104"/>
       <c r="O17" s="64"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="128"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="76"/>
       <c r="D18" s="87"/>
       <c r="E18" s="72" t="s">
@@ -7958,15 +8003,15 @@
       <c r="J18" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="136"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="104"/>
       <c r="O18" s="64"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="128"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="76"/>
       <c r="D19" s="87"/>
       <c r="E19" s="72" t="s">
@@ -7981,15 +8026,15 @@
       <c r="J19" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="K19" s="129"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="136"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="104"/>
       <c r="O19" s="64"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="128"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="76"/>
       <c r="D20" s="87"/>
       <c r="E20" s="72" t="s">
@@ -8004,15 +8049,15 @@
       <c r="J20" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="K20" s="129"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="136"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="104"/>
       <c r="O20" s="64"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="128"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="76"/>
       <c r="D21" s="87"/>
       <c r="E21" s="72" t="s">
@@ -8027,15 +8072,15 @@
       <c r="J21" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="K21" s="129"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="136"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="104"/>
       <c r="O21" s="64"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="128"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="76"/>
       <c r="D22" s="87"/>
       <c r="E22" s="72" t="s">
@@ -8050,15 +8095,15 @@
       <c r="J22" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="K22" s="129"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="136"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="104"/>
       <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="128"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="76"/>
       <c r="D23" s="87"/>
       <c r="E23" s="72" t="s">
@@ -8073,15 +8118,15 @@
       <c r="J23" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="136"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="104"/>
       <c r="O23" s="64"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="128"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="76"/>
       <c r="D24" s="87"/>
       <c r="E24" s="72" t="s">
@@ -8096,15 +8141,15 @@
       <c r="J24" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="136"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="104"/>
       <c r="O24" s="64"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="128"/>
-      <c r="B25" s="134"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="76"/>
       <c r="D25" s="87"/>
       <c r="E25" s="72" t="s">
@@ -8119,15 +8164,15 @@
       <c r="J25" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="136"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="104"/>
       <c r="O25" s="64"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="128"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="76"/>
       <c r="D26" s="87"/>
       <c r="E26" s="72" t="s">
@@ -8142,15 +8187,15 @@
       <c r="J26" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="K26" s="129"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="136"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="104"/>
       <c r="O26" s="64"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="128"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="76"/>
       <c r="D27" s="87"/>
       <c r="E27" s="72" t="s">
@@ -8165,21 +8210,21 @@
       <c r="J27" s="64" t="s">
         <v>584</v>
       </c>
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="136"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="104"/>
       <c r="O27" s="64"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="128"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="73"/>
       <c r="D28" s="85"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="128"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="76"/>
       <c r="D29" s="87"/>
       <c r="E29" s="72" t="s">
@@ -8194,23 +8239,23 @@
       <c r="J29" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="105" t="s">
         <v>588</v>
       </c>
-      <c r="L29" s="137" t="s">
+      <c r="L29" s="108" t="s">
         <v>589</v>
       </c>
-      <c r="M29" s="137" t="s">
+      <c r="M29" s="108" t="s">
         <v>590</v>
       </c>
-      <c r="N29" s="138" t="s">
+      <c r="N29" s="109" t="s">
         <v>591</v>
       </c>
       <c r="O29" s="64"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="128"/>
-      <c r="B30" s="134"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="76"/>
       <c r="D30" s="87"/>
       <c r="E30" s="72" t="s">
@@ -8225,15 +8270,15 @@
       <c r="J30" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="K30" s="97"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="139"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="110"/>
       <c r="O30" s="64"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="128"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="76"/>
       <c r="D31" s="87"/>
       <c r="E31" s="72" t="s">
@@ -8248,21 +8293,21 @@
       <c r="J31" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="K31" s="98"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="140"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="111"/>
       <c r="O31" s="64"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="128"/>
-      <c r="B32" s="134"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="73"/>
       <c r="D32" s="85"/>
     </row>
     <row r="33" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="128"/>
-      <c r="B33" s="134"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="76"/>
       <c r="D33" s="87"/>
       <c r="E33" s="72" t="s">
@@ -8292,14 +8337,14 @@
       <c r="O33" s="64"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="128"/>
-      <c r="B34" s="134"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="73"/>
       <c r="D34" s="85"/>
     </row>
     <row r="35" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="128"/>
-      <c r="B35" s="134"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="76"/>
       <c r="D35" s="87"/>
       <c r="E35" s="72" t="s">
@@ -8329,14 +8374,14 @@
       <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="128"/>
-      <c r="B36" s="134"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="73"/>
       <c r="D36" s="85"/>
     </row>
     <row r="37" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A37" s="128"/>
-      <c r="B37" s="134"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="76"/>
       <c r="D37" s="87"/>
       <c r="E37" s="72" t="s">
@@ -8366,14 +8411,14 @@
       <c r="O37" s="64"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="128"/>
-      <c r="B38" s="134"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="73"/>
       <c r="D38" s="85"/>
     </row>
     <row r="39" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A39" s="128"/>
-      <c r="B39" s="134"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="76"/>
       <c r="D39" s="87"/>
       <c r="E39" s="72" t="s">
@@ -8403,14 +8448,14 @@
       <c r="O39" s="64"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="128"/>
-      <c r="B40" s="134"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="73"/>
       <c r="D40" s="85"/>
     </row>
     <row r="41" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="128"/>
-      <c r="B41" s="135"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="79"/>
       <c r="D41" s="79"/>
       <c r="E41" s="72" t="s">
@@ -8440,27 +8485,27 @@
       <c r="O41" s="64"/>
     </row>
     <row r="43" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="121" t="s">
+        <v>654</v>
+      </c>
+      <c r="C43" s="118" t="s">
         <v>655</v>
       </c>
-      <c r="C43" s="118" t="s">
-        <v>656</v>
-      </c>
       <c r="D43" s="93" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J43" s="64" t="s">
         <v>668</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="71">
         <v>2</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="121"/>
       <c r="C44" s="118"/>
       <c r="D44" s="64" t="s">
         <v>622</v>
@@ -8475,7 +8520,7 @@
         <v>623</v>
       </c>
       <c r="K44" s="69" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L44" s="68" t="s">
         <v>624</v>
@@ -8489,16 +8534,16 @@
       <c r="O44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" s="131"/>
+      <c r="B45" s="121"/>
       <c r="C45" s="118"/>
       <c r="D45" s="117" t="s">
-        <v>657</v>
-      </c>
-      <c r="E45" s="105" t="s">
+        <v>656</v>
+      </c>
+      <c r="E45" s="117" t="s">
         <v>637</v>
       </c>
-      <c r="F45" s="132" t="s">
-        <v>659</v>
+      <c r="F45" s="119" t="s">
+        <v>658</v>
       </c>
       <c r="G45" s="117"/>
       <c r="H45" s="74" t="s">
@@ -8509,169 +8554,227 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="131"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="118"/>
       <c r="D46" s="118"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="133"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="120"/>
       <c r="G46" s="118"/>
       <c r="H46" s="86" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I46" s="83"/>
       <c r="J46" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="131"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="118"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="83"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="96" t="s">
+        <v>692</v>
+      </c>
+      <c r="I47" s="83" t="s">
+        <v>690</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="131"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="118"/>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="85"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="83"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="121"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="77" t="s">
+        <v>661</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F49" s="97" t="s">
         <v>663</v>
       </c>
-      <c r="F48" s="143" t="s">
-        <v>664</v>
-      </c>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="83" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B49" s="131"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="89" t="s">
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="83" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B50" s="121"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="89" t="s">
+        <v>689</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F50" s="97" t="s">
         <v>675</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G50" s="90"/>
+      <c r="H50" s="90" t="s">
         <v>676</v>
       </c>
-      <c r="F49" s="143" t="s">
+      <c r="I50" s="83" t="s">
         <v>677</v>
       </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="I49" s="83" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="88"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="83"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>629</v>
-      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="83"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="148">
         <v>4</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="148" t="s">
         <v>627</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="F53" s="148" t="s">
+        <v>686</v>
+      </c>
+      <c r="G53" s="84"/>
+      <c r="I53" s="147" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="148"/>
+      <c r="B54" s="148"/>
+      <c r="C54" s="148"/>
+      <c r="E54" s="61" t="s">
         <v>646</v>
       </c>
-      <c r="G52" s="84"/>
-      <c r="H52" s="61" t="s">
+      <c r="F54" s="148"/>
+      <c r="H54" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I52" s="61" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
-        <v>5</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>628</v>
+      <c r="I54" s="61" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="148"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="E55" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F55" s="148"/>
+      <c r="H55" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
         <v>6</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
-        <v>7</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
         <v>9</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B69" s="127" t="s">
+      <c r="B70" s="100" t="s">
         <v>640</v>
       </c>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="75"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="K15:K27"/>
+    <mergeCell ref="L15:L27"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
     <mergeCell ref="M15:M27"/>
     <mergeCell ref="B2:B41"/>
     <mergeCell ref="N15:N27"/>
@@ -8683,16 +8786,6 @@
     <mergeCell ref="L2:L13"/>
     <mergeCell ref="M2:M13"/>
     <mergeCell ref="N2:N13"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="K15:K27"/>
-    <mergeCell ref="L15:L27"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="B43:B49"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/服务器账号 .xlsx
+++ b/服务器账号 .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="698">
   <si>
     <t>统一对外IP</t>
   </si>
@@ -2655,9 +2655,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>814_waiguoyudaxue_mysql_backup</t>
-  </si>
-  <si>
     <t>外国语大学数据库备份</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2833,35 +2830,47 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>172.16.32.40</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年以前项目数据库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>root 123456</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>root Zahd_123456</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_10的备份数据库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>814_waiguoyudaxue_mysql_backup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>root  w0F5649Z/3x2m8GMcsUUGQ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.32.40</t>
+    <t>server-id</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2018年以前项目数据库</t>
+    <t>server5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>root 123456</t>
+    <t xml:space="preserve">mysql_1   </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>mysql_1    server-id=10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql_10_bak    server-id=11</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>root Zahd_123456</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql_10的备份数据库</t>
+    <t xml:space="preserve">mysql_1_bak  </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3406,14 +3415,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3450,29 +3486,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3501,15 +3546,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3522,38 +3558,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3881,7 +3890,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>108</v>
@@ -4001,21 +4010,21 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="54" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
       </c>
       <c r="C11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E11" s="54" t="s">
         <v>679</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -4429,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -4550,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -4631,7 +4640,7 @@
       <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="123" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -4658,7 +4667,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="142"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -4671,7 +4680,7 @@
       <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="142"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -4684,7 +4693,7 @@
       <c r="L5" s="46"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="142"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -4697,7 +4706,7 @@
       <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="114" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="17"/>
@@ -4720,7 +4729,7 @@
       <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="106"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
@@ -4745,12 +4754,12 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="106"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="117" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="E9" s="127" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="16"/>
@@ -4768,10 +4777,10 @@
       <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="106"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="138"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="16">
         <v>12768</v>
       </c>
@@ -4789,10 +4798,10 @@
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="106"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="139"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="13">
         <v>12768</v>
       </c>
@@ -4812,18 +4821,18 @@
       <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="106"/>
-      <c r="C12" s="146" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="129" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="143">
         <v>12768</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="134">
         <v>10002</v>
       </c>
       <c r="H12" s="18"/>
@@ -4839,12 +4848,12 @@
       <c r="L12" s="47"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="106"/>
-      <c r="C13" s="138"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="123"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="135"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
         <v>18</v>
@@ -4858,10 +4867,10 @@
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="106"/>
-      <c r="C14" s="138"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="141"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="16" t="s">
@@ -4873,10 +4882,10 @@
       <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="106"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="141"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="16" t="s">
         <v>28</v>
       </c>
@@ -4898,15 +4907,15 @@
       <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="106"/>
-      <c r="C16" s="116" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="130" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="134">
         <v>12768</v>
       </c>
       <c r="G16" s="18"/>
@@ -4921,11 +4930,11 @@
       <c r="L16" s="47"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="106"/>
-      <c r="C17" s="138"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="123"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="16">
         <v>10003</v>
       </c>
@@ -4942,10 +4951,10 @@
       <c r="L17" s="46"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="106"/>
-      <c r="C18" s="139"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="139"/>
+      <c r="E18" s="128"/>
       <c r="F18" s="13">
         <v>3306</v>
       </c>
@@ -4965,15 +4974,15 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="106"/>
-      <c r="C19" s="116" t="s">
+      <c r="B19" s="115"/>
+      <c r="C19" s="130" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="116" t="s">
+      <c r="E19" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="134">
         <v>12768</v>
       </c>
       <c r="G19" s="18"/>
@@ -4988,11 +4997,11 @@
       <c r="L19" s="47"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="106"/>
-      <c r="C20" s="138"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="123"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="135"/>
       <c r="G20" s="16">
         <v>10004</v>
       </c>
@@ -5009,10 +5018,10 @@
       <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="106"/>
-      <c r="C21" s="139"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="139"/>
+      <c r="E21" s="128"/>
       <c r="F21" s="13">
         <v>3306</v>
       </c>
@@ -5024,15 +5033,15 @@
       <c r="L21" s="44"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="106"/>
-      <c r="C22" s="116" t="s">
+      <c r="B22" s="115"/>
+      <c r="C22" s="130" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="134">
         <v>12768</v>
       </c>
       <c r="G22" s="18"/>
@@ -5047,11 +5056,11 @@
       <c r="L22" s="47"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="106"/>
-      <c r="C23" s="138"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="123"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="135"/>
       <c r="G23" s="16">
         <v>10005</v>
       </c>
@@ -5068,10 +5077,10 @@
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="106"/>
-      <c r="C24" s="138"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="138"/>
+      <c r="E24" s="127"/>
       <c r="F24" s="16">
         <v>3306</v>
       </c>
@@ -5089,10 +5098,10 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="106"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="139"/>
+      <c r="E25" s="128"/>
       <c r="F25" s="26">
         <v>3306</v>
       </c>
@@ -5106,7 +5115,7 @@
       <c r="L25" s="44"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="106"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="131" t="s">
         <v>45</v>
       </c>
@@ -5114,7 +5123,7 @@
       <c r="E26" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="136">
+      <c r="F26" s="145">
         <v>12768</v>
       </c>
       <c r="G26" s="29"/>
@@ -5129,11 +5138,11 @@
       <c r="L26" s="48"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="106"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="132"/>
       <c r="D27" s="30"/>
       <c r="E27" s="132"/>
-      <c r="F27" s="137"/>
+      <c r="F27" s="146"/>
       <c r="G27" s="32">
         <v>10006</v>
       </c>
@@ -5148,7 +5157,7 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="106"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="133"/>
       <c r="D28" s="33"/>
       <c r="E28" s="133"/>
@@ -5167,7 +5176,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="106"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="17" t="s">
         <v>45</v>
       </c>
@@ -5188,7 +5197,7 @@
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="106"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -5201,7 +5210,7 @@
       <c r="L30" s="46"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="106"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -5218,7 +5227,7 @@
       <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="107"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -5231,7 +5240,7 @@
       <c r="L32" s="44"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="143"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="35" t="s">
         <v>47</v>
       </c>
@@ -5256,7 +5265,7 @@
       <c r="L33" s="36"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="144"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -5273,32 +5282,32 @@
       <c r="L34" s="36"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="144"/>
-      <c r="C35" s="124" t="s">
+      <c r="B35" s="125"/>
+      <c r="C35" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="126"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="138"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="145"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="141"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37" s="37"/>
@@ -5719,15 +5728,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="C35:L36"/>
     <mergeCell ref="D9:D11"/>
@@ -5742,6 +5742,15 @@
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E21"/>
     <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5801,7 +5810,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
       <c r="B3" s="54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>136</v>
@@ -5851,7 +5860,7 @@
         <v>121</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C11" s="54" t="s">
         <v>136</v>
@@ -6051,23 +6060,23 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="100" t="s">
         <v>398</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>681</v>
+      </c>
+      <c r="H16" t="s">
         <v>682</v>
-      </c>
-      <c r="H16" t="s">
-        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7157,7 +7166,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="101" t="s">
         <v>424</v>
       </c>
       <c r="B21" t="s">
@@ -7171,7 +7180,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="100"/>
+      <c r="A22" s="101"/>
       <c r="B22" t="s">
         <v>428</v>
       </c>
@@ -7281,10 +7290,10 @@
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="66" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -7363,14 +7372,14 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -7551,7 +7560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
@@ -7560,11 +7569,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
     <col min="9" max="9" width="39.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="27.5" style="1" customWidth="1"/>
@@ -7585,13 +7596,15 @@
         <v>644</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>497</v>
       </c>
       <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="G1" s="81" t="s">
+        <v>694</v>
+      </c>
       <c r="H1" s="81" t="s">
         <v>647</v>
       </c>
@@ -7616,10 +7629,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="114">
+      <c r="A2" s="103">
         <v>1</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="111" t="s">
         <v>642</v>
       </c>
       <c r="C2" s="76"/>
@@ -7636,23 +7649,23 @@
       <c r="J2" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="115" t="s">
         <v>506</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="111" t="s">
         <v>508</v>
       </c>
-      <c r="N2" s="112" t="s">
+      <c r="N2" s="121" t="s">
         <v>509</v>
       </c>
       <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="76"/>
       <c r="D3" s="87"/>
       <c r="E3" s="72" t="s">
@@ -7667,15 +7680,15 @@
       <c r="J3" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="112"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="121"/>
       <c r="O3" s="64"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="114"/>
-      <c r="B4" s="102"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="76"/>
       <c r="D4" s="87"/>
       <c r="E4" s="72" t="s">
@@ -7690,15 +7703,15 @@
       <c r="J4" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="112"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="64"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="114"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="76"/>
       <c r="D5" s="87"/>
       <c r="E5" s="72" t="s">
@@ -7713,15 +7726,15 @@
       <c r="J5" s="64" t="s">
         <v>518</v>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="112"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="121"/>
       <c r="O5" s="64"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="114"/>
-      <c r="B6" s="102"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="76"/>
       <c r="D6" s="87"/>
       <c r="E6" s="72" t="s">
@@ -7736,15 +7749,15 @@
       <c r="J6" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="112"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="121"/>
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="114"/>
-      <c r="B7" s="102"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="76"/>
       <c r="D7" s="87"/>
       <c r="E7" s="72" t="s">
@@ -7759,15 +7772,15 @@
       <c r="J7" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="112"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="121"/>
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="114"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="76"/>
       <c r="D8" s="87"/>
       <c r="E8" s="72" t="s">
@@ -7782,15 +7795,15 @@
       <c r="J8" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="112"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="121"/>
       <c r="O8" s="64"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="114"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="76"/>
       <c r="D9" s="87"/>
       <c r="E9" s="72" t="s">
@@ -7805,15 +7818,15 @@
       <c r="J9" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="112"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="121"/>
       <c r="O9" s="64"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="114"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="76"/>
       <c r="D10" s="87"/>
       <c r="E10" s="72" t="s">
@@ -7828,15 +7841,15 @@
       <c r="J10" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="112"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="121"/>
       <c r="O10" s="64"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="114"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="76"/>
       <c r="D11" s="87"/>
       <c r="E11" s="72" t="s">
@@ -7851,15 +7864,15 @@
       <c r="J11" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="112"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="121"/>
       <c r="O11" s="64"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="114"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="76"/>
       <c r="D12" s="87"/>
       <c r="E12" s="72" t="s">
@@ -7874,15 +7887,15 @@
       <c r="J12" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="112"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="121"/>
       <c r="O12" s="64"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="114"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="76"/>
       <c r="D13" s="87"/>
       <c r="E13" s="72" t="s">
@@ -7897,21 +7910,21 @@
       <c r="J13" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="113"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="122"/>
       <c r="O13" s="64"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="114"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="73"/>
       <c r="D14" s="85"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="114"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="76"/>
       <c r="D15" s="87"/>
       <c r="E15" s="72" t="s">
@@ -7926,23 +7939,23 @@
       <c r="J15" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="K15" s="115" t="s">
+      <c r="K15" s="104" t="s">
         <v>546</v>
       </c>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="105" t="s">
         <v>547</v>
       </c>
-      <c r="M15" s="101" t="s">
+      <c r="M15" s="105" t="s">
         <v>548</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="113" t="s">
         <v>549</v>
       </c>
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="114"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="76"/>
       <c r="D16" s="87"/>
       <c r="E16" s="72" t="s">
@@ -7957,15 +7970,15 @@
       <c r="J16" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="K16" s="115"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="113"/>
       <c r="O16" s="64"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="114"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="76"/>
       <c r="D17" s="87"/>
       <c r="E17" s="72" t="s">
@@ -7980,15 +7993,15 @@
       <c r="J17" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="113"/>
       <c r="O17" s="64"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="114"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="76"/>
       <c r="D18" s="87"/>
       <c r="E18" s="72" t="s">
@@ -8003,15 +8016,15 @@
       <c r="J18" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="K18" s="115"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="113"/>
       <c r="O18" s="64"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="114"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="76"/>
       <c r="D19" s="87"/>
       <c r="E19" s="72" t="s">
@@ -8026,15 +8039,15 @@
       <c r="J19" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="113"/>
       <c r="O19" s="64"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="114"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="76"/>
       <c r="D20" s="87"/>
       <c r="E20" s="72" t="s">
@@ -8049,15 +8062,15 @@
       <c r="J20" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="64"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="114"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="76"/>
       <c r="D21" s="87"/>
       <c r="E21" s="72" t="s">
@@ -8072,15 +8085,15 @@
       <c r="J21" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="K21" s="115"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="113"/>
       <c r="O21" s="64"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="114"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="76"/>
       <c r="D22" s="87"/>
       <c r="E22" s="72" t="s">
@@ -8095,15 +8108,15 @@
       <c r="J22" s="64" t="s">
         <v>570</v>
       </c>
-      <c r="K22" s="115"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="113"/>
       <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="114"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="76"/>
       <c r="D23" s="87"/>
       <c r="E23" s="72" t="s">
@@ -8118,15 +8131,15 @@
       <c r="J23" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="K23" s="115"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="113"/>
       <c r="O23" s="64"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="114"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="76"/>
       <c r="D24" s="87"/>
       <c r="E24" s="72" t="s">
@@ -8141,15 +8154,15 @@
       <c r="J24" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="K24" s="115"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="113"/>
       <c r="O24" s="64"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="114"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="76"/>
       <c r="D25" s="87"/>
       <c r="E25" s="72" t="s">
@@ -8164,15 +8177,15 @@
       <c r="J25" s="64" t="s">
         <v>579</v>
       </c>
-      <c r="K25" s="115"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="113"/>
       <c r="O25" s="64"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="114"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="76"/>
       <c r="D26" s="87"/>
       <c r="E26" s="72" t="s">
@@ -8187,15 +8200,15 @@
       <c r="J26" s="64" t="s">
         <v>582</v>
       </c>
-      <c r="K26" s="115"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="113"/>
       <c r="O26" s="64"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="114"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="76"/>
       <c r="D27" s="87"/>
       <c r="E27" s="72" t="s">
@@ -8210,21 +8223,21 @@
       <c r="J27" s="64" t="s">
         <v>584</v>
       </c>
-      <c r="K27" s="115"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="113"/>
       <c r="O27" s="64"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="114"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="73"/>
       <c r="D28" s="85"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="114"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="76"/>
       <c r="D29" s="87"/>
       <c r="E29" s="72" t="s">
@@ -8239,23 +8252,23 @@
       <c r="J29" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="K29" s="105" t="s">
+      <c r="K29" s="114" t="s">
         <v>588</v>
       </c>
-      <c r="L29" s="108" t="s">
+      <c r="L29" s="117" t="s">
         <v>589</v>
       </c>
-      <c r="M29" s="108" t="s">
+      <c r="M29" s="117" t="s">
         <v>590</v>
       </c>
-      <c r="N29" s="109" t="s">
+      <c r="N29" s="118" t="s">
         <v>591</v>
       </c>
       <c r="O29" s="64"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="114"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="76"/>
       <c r="D30" s="87"/>
       <c r="E30" s="72" t="s">
@@ -8270,15 +8283,15 @@
       <c r="J30" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="K30" s="106"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="110"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="119"/>
       <c r="O30" s="64"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="114"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="76"/>
       <c r="D31" s="87"/>
       <c r="E31" s="72" t="s">
@@ -8293,21 +8306,21 @@
       <c r="J31" s="64" t="s">
         <v>596</v>
       </c>
-      <c r="K31" s="107"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="111"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="120"/>
       <c r="O31" s="64"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="114"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="73"/>
       <c r="D32" s="85"/>
     </row>
     <row r="33" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="114"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="76"/>
       <c r="D33" s="87"/>
       <c r="E33" s="72" t="s">
@@ -8337,14 +8350,14 @@
       <c r="O33" s="64"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="114"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="73"/>
       <c r="D34" s="85"/>
     </row>
     <row r="35" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="114"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="76"/>
       <c r="D35" s="87"/>
       <c r="E35" s="72" t="s">
@@ -8374,14 +8387,14 @@
       <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="114"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="73"/>
       <c r="D36" s="85"/>
     </row>
     <row r="37" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A37" s="114"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="76"/>
       <c r="D37" s="87"/>
       <c r="E37" s="72" t="s">
@@ -8411,14 +8424,14 @@
       <c r="O37" s="64"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="114"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="73"/>
       <c r="D38" s="85"/>
     </row>
     <row r="39" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A39" s="114"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="76"/>
       <c r="D39" s="87"/>
       <c r="E39" s="72" t="s">
@@ -8448,14 +8461,14 @@
       <c r="O39" s="64"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="114"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="73"/>
       <c r="D40" s="85"/>
     </row>
     <row r="41" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="114"/>
-      <c r="B41" s="103"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="112"/>
       <c r="C41" s="79"/>
       <c r="D41" s="79"/>
       <c r="E41" s="72" t="s">
@@ -8485,42 +8498,47 @@
       <c r="O41" s="64"/>
     </row>
     <row r="43" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="108" t="s">
+        <v>653</v>
+      </c>
+      <c r="C43" s="107" t="s">
         <v>654</v>
       </c>
-      <c r="C43" s="118" t="s">
-        <v>655</v>
-      </c>
       <c r="D43" s="93" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J43" s="64" t="s">
         <v>667</v>
-      </c>
-      <c r="J43" s="64" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="54" x14ac:dyDescent="0.15">
       <c r="A44" s="71">
         <v>2</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="107"/>
       <c r="D44" s="64" t="s">
         <v>622</v>
       </c>
       <c r="E44" s="84" t="s">
         <v>645</v>
       </c>
-      <c r="F44" s="64"/>
+      <c r="F44" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
       <c r="H44" s="64"/>
       <c r="I44" s="64"/>
       <c r="J44" s="64" t="s">
         <v>623</v>
       </c>
       <c r="K44" s="69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L44" s="68" t="s">
         <v>624</v>
@@ -8534,60 +8552,62 @@
       <c r="O44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="B45" s="121"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="117" t="s">
-        <v>656</v>
-      </c>
-      <c r="E45" s="117" t="s">
+      <c r="B45" s="108"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="106" t="s">
+        <v>655</v>
+      </c>
+      <c r="E45" s="106" t="s">
         <v>637</v>
       </c>
-      <c r="F45" s="119" t="s">
-        <v>658</v>
-      </c>
-      <c r="G45" s="117"/>
+      <c r="F45" s="109" t="s">
+        <v>657</v>
+      </c>
+      <c r="G45" s="106"/>
       <c r="H45" s="74" t="s">
         <v>638</v>
       </c>
       <c r="I45" s="83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="121"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="118"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="107"/>
       <c r="H46" s="86" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I46" s="83"/>
       <c r="J46" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="121"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="95"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="95">
+        <v>10</v>
+      </c>
       <c r="H47" s="96" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="I47" s="83" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="121"/>
-      <c r="C48" s="118"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="85"/>
       <c r="E48" s="71"/>
       <c r="F48" s="92"/>
@@ -8596,41 +8616,41 @@
       <c r="I48" s="83"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="121"/>
-      <c r="C49" s="118"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="77" t="s">
+        <v>660</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="97" t="s">
         <v>662</v>
-      </c>
-      <c r="F49" s="97" t="s">
-        <v>663</v>
       </c>
       <c r="G49" s="78"/>
       <c r="H49" s="78"/>
       <c r="I49" s="83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B50" s="121"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="89" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F50" s="97" t="s">
         <v>674</v>
-      </c>
-      <c r="F50" s="97" t="s">
-        <v>675</v>
       </c>
       <c r="G50" s="90"/>
       <c r="H50" s="90" t="s">
+        <v>675</v>
+      </c>
+      <c r="I50" s="83" t="s">
         <v>676</v>
-      </c>
-      <c r="I50" s="83" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -8651,51 +8671,57 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A53" s="148">
+      <c r="A53" s="102">
         <v>4</v>
       </c>
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="102" t="s">
         <v>627</v>
       </c>
-      <c r="C53" s="148" t="s">
+      <c r="C53" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="148" t="s">
+      <c r="F53" s="102" t="s">
+        <v>685</v>
+      </c>
+      <c r="G53" s="84"/>
+      <c r="I53" s="99" t="s">
         <v>686</v>
       </c>
-      <c r="G53" s="84"/>
-      <c r="I53" s="147" t="s">
-        <v>687</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="148"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="148"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
       <c r="E54" s="61" t="s">
         <v>646</v>
       </c>
-      <c r="F54" s="148"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
       <c r="H54" s="61" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="I54" s="61" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="148"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="148"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
       <c r="E55" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="F55" s="148"/>
+        <v>691</v>
+      </c>
+      <c r="F55" s="102"/>
+      <c r="G55" s="1">
+        <v>11</v>
+      </c>
       <c r="H55" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -8725,7 +8751,7 @@
         <v>632</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -8748,19 +8774,30 @@
       <c r="A70" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B70" s="100" t="s">
+      <c r="B70" s="101" t="s">
         <v>640</v>
       </c>
-      <c r="C70" s="100"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
       <c r="I70" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M15:M27"/>
+    <mergeCell ref="B2:B41"/>
+    <mergeCell ref="N15:N27"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="K2:K13"/>
+    <mergeCell ref="L2:L13"/>
+    <mergeCell ref="M2:M13"/>
+    <mergeCell ref="N2:N13"/>
     <mergeCell ref="F53:F55"/>
     <mergeCell ref="B70:H70"/>
     <mergeCell ref="A2:A41"/>
@@ -8775,17 +8812,6 @@
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="C53:C55"/>
-    <mergeCell ref="M15:M27"/>
-    <mergeCell ref="B2:B41"/>
-    <mergeCell ref="N15:N27"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="K2:K13"/>
-    <mergeCell ref="L2:L13"/>
-    <mergeCell ref="M2:M13"/>
-    <mergeCell ref="N2:N13"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
